--- a/kit-kat1.xlsx
+++ b/kit-kat1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nevton\Music\projeto-2-CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omarafrangeneto/Downloads/projeto-2-CD-master-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D9C2C2-A4A4-4FF4-822B-B101F102F72A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0EB338-7EA7-F34B-B3E3-2BC88695EEB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28620" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -602,16 +602,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="129.90625" customWidth="1"/>
+    <col min="1" max="1" width="157.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -795,154 +795,244 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -957,9 +1047,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
